--- a/raw_game_pulls/6198464_Play-By-Play for Morgan St. vs James Madison.xlsx
+++ b/raw_game_pulls/6198464_Play-By-Play for Morgan St. vs James Madison.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdona\repos\ncaa_2024\raw_game_pulls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E52F60-B277-41BA-B3D0-A40F4EBF5237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -622,629 +628,629 @@
     <t>00:20</t>
   </si>
   <si>
-    <t>Layup MISSED by DUKES's Freidel, Noah</t>
-  </si>
-  <si>
-    <t>BEARS Defensive REBOUND by Udemadu, Allen</t>
-  </si>
-  <si>
-    <t>Layup GOOD by BEARS's Hobbs, Kamron</t>
-  </si>
-  <si>
-    <t>BEARS Assist by Lawson, Rob</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by DUKES's Freidel, Noah</t>
-  </si>
-  <si>
-    <t>DUKES Offensive REBOUND by team</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by DUKES's Wooden, Julien</t>
-  </si>
-  <si>
-    <t>DUKES Offensive REBOUND by Iii, Michael green</t>
-  </si>
-  <si>
-    <t>Jumper GOOD by DUKES's Bickerstaff, Tj</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by BEARS's Lawson, Rob</t>
-  </si>
-  <si>
-    <t>DUKES Defensive REBOUND by Bickerstaff, Tj</t>
-  </si>
-  <si>
-    <t>Foul on BEARS's Udemadu, Allen</t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by DUKES's Bickerstaff, Tj</t>
-  </si>
-  <si>
-    <t>Subbing in for BEARS - Oliver, Christian</t>
-  </si>
-  <si>
-    <t>Subbing out for BEARS - Udemadu, Allen</t>
-  </si>
-  <si>
-    <t>Layup GOOD by BEARS's Simpkins, Amahrie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DUKES Turnover by ,, </t>
-  </si>
-  <si>
-    <t>BEARS Steal by Lawson, Rob</t>
-  </si>
-  <si>
-    <t>Layup MISSED by BEARS's Thomas, Will</t>
-  </si>
-  <si>
-    <t>BEARS Offensive REBOUND by Hobbs, Kamron</t>
-  </si>
-  <si>
-    <t>Layup MISSED by BEARS's Hobbs, Kamron</t>
-  </si>
-  <si>
-    <t>DUKES Defensive REBOUND by Horton, Raekwon</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by DUKES's Iii, Michael green</t>
-  </si>
-  <si>
-    <t>BEARS Defensive REBOUND by Simpkins, Amahrie</t>
-  </si>
-  <si>
-    <t>Layup GOOD by BEARS's Oliver, Christian</t>
-  </si>
-  <si>
-    <t>Foul on BEARS's Hobbs, Kamron</t>
-  </si>
-  <si>
-    <t>Foul on BEARS's Simpkins, Amahrie</t>
-  </si>
-  <si>
-    <t>BEARS Turnover by Simpkins, Amahrie</t>
-  </si>
-  <si>
-    <t>Subbing in for BEARS - Edwards, Trent</t>
-  </si>
-  <si>
-    <t>Subbing out for BEARS - Simpkins, Amahrie</t>
-  </si>
-  <si>
-    <t>BEARS Defensive REBOUND by team</t>
-  </si>
-  <si>
-    <t>Jumper GOOD by BEARS's Lawson, Rob</t>
-  </si>
-  <si>
-    <t>BEARS Defensive REBOUND by Hobbs, Kamron</t>
-  </si>
-  <si>
-    <t>Layup GOOD by BEARS's Edwards, Trent</t>
-  </si>
-  <si>
-    <t>BEARS Assist by Thomas, Will</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jumper GOOD by DUKES's ,, </t>
-  </si>
-  <si>
-    <t>Layup MISSED by BEARS's Lawson, Rob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DUKES Defensive REBOUND by ,, </t>
-  </si>
-  <si>
     <t>Media timeout</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by BEARS's Oliver, Christian</t>
-  </si>
-  <si>
-    <t>BEARS Offensive REBOUND by Thomas, Will</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foul on DUKES's ,, </t>
-  </si>
-  <si>
-    <t>BEARS Turnover by Oliver, Christian</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by DUKES's Iii, Michael green</t>
-  </si>
-  <si>
-    <t>DUKES Assist by Brown, Xavier</t>
-  </si>
-  <si>
-    <t>Foul on DUKES's Iii, Michael green</t>
-  </si>
-  <si>
-    <t>Subbing in for DUKES - Horton, Raekwon</t>
-  </si>
-  <si>
-    <t>Subbing in for DUKES - Brown, Xavier</t>
-  </si>
-  <si>
-    <t>Subbing in for DUKES - Carey, Jaylen</t>
-  </si>
-  <si>
-    <t>Subbing out for DUKES - Bickerstaff, Tj</t>
-  </si>
-  <si>
-    <t>Subbing out for DUKES - Freidel, Noah</t>
-  </si>
-  <si>
-    <t>Subbing out for DUKES - Wooden, Julien</t>
-  </si>
-  <si>
-    <t>Subbing in for BEARS - Udemadu, Allen</t>
-  </si>
-  <si>
-    <t>Subbing out for BEARS - Oliver, Christian</t>
-  </si>
-  <si>
-    <t>Jumper GOOD by BEARS's Thomas, Will</t>
-  </si>
-  <si>
-    <t>BEARS Assist by Hobbs, Kamron</t>
-  </si>
-  <si>
-    <t>Layup GOOD by DUKES's Carey, Jaylen</t>
-  </si>
-  <si>
-    <t>DUKES Assist by Iii, Michael green</t>
-  </si>
-  <si>
-    <t>Layup MISSED by BEARS's Udemadu, Allen</t>
-  </si>
-  <si>
-    <t>DUKES Defensive REBOUND by Brown, Xavier</t>
-  </si>
-  <si>
-    <t>Layup MISSED by DUKES's Brown, Xavier</t>
-  </si>
-  <si>
-    <t>BEARS Defensive REBOUND by Edwards, Trent</t>
-  </si>
-  <si>
-    <t>Jumper GOOD by BEARS's Hobbs, Kamron</t>
-  </si>
-  <si>
-    <t>Foul on BEARS's Edwards, Trent</t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by DUKES's Horton, Raekwon</t>
-  </si>
-  <si>
-    <t>Subbing in for BEARS - Oliver, Kiran</t>
-  </si>
-  <si>
-    <t>Subbing in for BEARS - Topps, Demajion</t>
-  </si>
-  <si>
-    <t>Subbing in for BEARS - Tabbs, Wynston</t>
-  </si>
-  <si>
-    <t>Subbing in for BEARS - Brimage, Marvin</t>
-  </si>
-  <si>
-    <t>Subbing out for BEARS - Edwards, Trent</t>
-  </si>
-  <si>
-    <t>Subbing out for BEARS - Lawson, Rob</t>
-  </si>
-  <si>
-    <t>Subbing out for BEARS - Thomas, Will</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by DUKES's Horton, Raekwon</t>
-  </si>
-  <si>
-    <t>DUKES Assist by Freidel, Noah</t>
-  </si>
-  <si>
-    <t>DUKES Defensive REBOUND by Randleman, Bryant</t>
-  </si>
-  <si>
-    <t>DUKES Turnover by Horton, Raekwon</t>
-  </si>
-  <si>
-    <t>Subbing in for DUKES - Freidel, Noah</t>
-  </si>
-  <si>
-    <t>Subbing in for DUKES - Bickerstaff, Tj</t>
-  </si>
-  <si>
-    <t>Subbing in for DUKES - Randleman, Bryant</t>
-  </si>
-  <si>
-    <t>Subbing out for DUKES - Iii, Michael green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subbing out for DUKES - ,, </t>
-  </si>
-  <si>
-    <t>Subbing out for DUKES - Carey, Jaylen</t>
-  </si>
-  <si>
-    <t>Subbing in for BEARS - Lawson, Rob</t>
-  </si>
-  <si>
-    <t>Subbing in for BEARS - Simpkins, Amahrie</t>
-  </si>
-  <si>
-    <t>Subbing out for BEARS - Oliver, Kiran</t>
-  </si>
-  <si>
-    <t>Subbing out for BEARS - Topps, Demajion</t>
-  </si>
-  <si>
-    <t>Subbing out for BEARS - Tabbs, Wynston</t>
-  </si>
-  <si>
-    <t>Subbing out for BEARS - Brimage, Marvin</t>
-  </si>
-  <si>
-    <t>Layup MISSED by BEARS's Simpkins, Amahrie</t>
-  </si>
-  <si>
-    <t>BEARS Offensive REBOUND by Udemadu, Allen</t>
-  </si>
-  <si>
-    <t>Foul on DUKES's Horton, Raekwon</t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by BEARS's Topps, Demajion</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by DUKES's Brown, Xavier</t>
-  </si>
-  <si>
-    <t>BEARS Defensive REBOUND by Lawson, Rob</t>
-  </si>
-  <si>
-    <t>Foul on DUKES's Freidel, Noah</t>
-  </si>
-  <si>
-    <t>Subbing in for DUKES - Smith, Hollman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subbing in for DUKES - ,, </t>
-  </si>
-  <si>
-    <t>Subbing out for DUKES - Horton, Raekwon</t>
-  </si>
-  <si>
-    <t>Subbing out for DUKES - Brown, Xavier</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by BEARS's Hobbs, Kamron</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by DUKES's Wooden, Julien</t>
-  </si>
-  <si>
-    <t>DUKES Assist by Randleman, Bryant</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by BEARS's Simpkins, Amahrie</t>
-  </si>
-  <si>
-    <t>Subbing in for DUKES - Iii, Michael green</t>
-  </si>
-  <si>
-    <t>Subbing out for DUKES - Randleman, Bryant</t>
-  </si>
-  <si>
-    <t>Subbing in for BEARS - Thomas, Will</t>
-  </si>
-  <si>
-    <t>Subbing out for BEARS - Hobbs, Kamron</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by BEARS's Thomas, Will</t>
-  </si>
-  <si>
-    <t>BEARS Offensive REBOUND by Brimage, Marvin</t>
-  </si>
-  <si>
-    <t>Layup MISSED by BEARS's Brimage, Marvin</t>
-  </si>
-  <si>
-    <t>BEARS Defensive REBOUND by Thomas, Will</t>
-  </si>
-  <si>
-    <t>Subbing in for BEARS - Hobbs, Kamron</t>
-  </si>
-  <si>
-    <t>BEARS Turnover by Hobbs, Kamron</t>
-  </si>
-  <si>
-    <t>DUKES Steal by Brown, Xavier</t>
-  </si>
-  <si>
-    <t>Foul on BEARS's Lawson, Rob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layup GOOD by DUKES's ,, </t>
-  </si>
-  <si>
-    <t>BEARS Turnover by Edwards, Trent</t>
-  </si>
-  <si>
-    <t>DUKES Steal by Wooden, Julien</t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by DUKES's Wooden, Julien</t>
-  </si>
-  <si>
-    <t>Subbing in for DUKES - Wooden, Julien</t>
-  </si>
-  <si>
-    <t>Subbing out for DUKES - Smith, Hollman</t>
-  </si>
-  <si>
-    <t>Foul on DUKES's Wooden, Julien</t>
-  </si>
-  <si>
-    <t>BEARS Turnover by Udemadu, Allen</t>
-  </si>
-  <si>
-    <t>DUKES Steal by Bickerstaff, Tj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 Pointer MISSED by DUKES's ,, </t>
-  </si>
-  <si>
-    <t>DUKES Offensive REBOUND by Freidel, Noah</t>
-  </si>
-  <si>
-    <t>DUKES Turnover by Freidel, Noah</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by BEARS's Lawson, Rob</t>
-  </si>
-  <si>
-    <t>Layup GOOD by DUKES's Wooden, Julien</t>
-  </si>
-  <si>
-    <t>BEARS takes a 30-second time out.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 Pointer GOOD by DUKES's ,, </t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by BEARS's Udemadu, Allen</t>
-  </si>
-  <si>
-    <t>DUKES Turnover by Brown, Xavier</t>
-  </si>
-  <si>
-    <t>BEARS Steal by Oliver, Christian</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by BEARS's Hobbs, Kamron</t>
-  </si>
-  <si>
-    <t>DUKES Defensive REBOUND by Carey, Jaylen</t>
-  </si>
-  <si>
-    <t>Foul on DUKES's Carey, Jaylen</t>
-  </si>
-  <si>
-    <t>Free Throw MISSED by BEARS's Thomas, Will</t>
-  </si>
-  <si>
-    <t>BEARS gets a REBOUND from a dead ball.</t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by BEARS's Thomas, Will</t>
-  </si>
-  <si>
-    <t>Foul on BEARS's Oliver, Christian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Free Throw GOOD by DUKES's ,, </t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by BEARS's Topps, Demajion</t>
-  </si>
-  <si>
-    <t>Jumper GOOD by BEARS's Topps, Demajion</t>
-  </si>
-  <si>
-    <t>DUKES Turnover by Iii, Michael green</t>
-  </si>
-  <si>
-    <t>Layup GOOD by BEARS's Lawson, Rob</t>
-  </si>
-  <si>
-    <t>Layup MISSED by DUKES's Iii, Michael green</t>
-  </si>
-  <si>
-    <t>BEARS Defensive REBOUND by Oliver, Christian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layup MISSED by DUKES's ,, </t>
-  </si>
-  <si>
-    <t>DUKES Offensive REBOUND by Bickerstaff, Tj</t>
-  </si>
-  <si>
-    <t>Layup MISSED by DUKES's Bickerstaff, Tj</t>
-  </si>
-  <si>
-    <t>BEARS Defensive REBOUND by Topps, Demajion</t>
-  </si>
-  <si>
-    <t>Layup GOOD by DUKES's Iii, Michael green</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by BEARS's Hobbs, Kamron</t>
-  </si>
-  <si>
-    <t>DUKES takes a 30-second time out.</t>
-  </si>
-  <si>
-    <t>Foul on BEARS's Topps, Demajion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Free Throw MISSED by DUKES's ,, </t>
-  </si>
-  <si>
-    <t>DUKES gets a REBOUND from a dead ball.</t>
-  </si>
-  <si>
-    <t>BEARS Turnover by Thomas, Will</t>
-  </si>
-  <si>
-    <t>Layup GOOD by BEARS's Udemadu, Allen</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by DUKES's Bickerstaff, Tj</t>
-  </si>
-  <si>
-    <t>BEARS Assist by Simpkins, Amahrie</t>
-  </si>
-  <si>
-    <t>DUKES Block by Wooden, Julien</t>
-  </si>
-  <si>
-    <t>DUKES Defensive REBOUND by Wooden, Julien</t>
-  </si>
-  <si>
-    <t>DUKES Offensive REBOUND by Carey, Jaylen</t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by BEARS's Simpkins, Amahrie</t>
-  </si>
-  <si>
-    <t>DUKES Turnover by Wooden, Julien</t>
-  </si>
-  <si>
-    <t>BEARS Steal by Hobbs, Kamron</t>
-  </si>
-  <si>
-    <t>Foul on BEARS's Thomas, Will</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by DUKES's Brown, Xavier</t>
-  </si>
-  <si>
-    <t>DUKES Assist by Horton, Raekwon</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by BEARS's Thomas, Will</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by DUKES's Horton, Raekwon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DUKES Offensive REBOUND by ,, </t>
-  </si>
-  <si>
-    <t>BEARS Block by Simpkins, Amahrie</t>
-  </si>
-  <si>
-    <t>Layup GOOD by BEARS's Thomas, Will</t>
-  </si>
-  <si>
-    <t>Foul on DUKES's Brown, Xavier</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by DUKES's Brown, Xavier</t>
-  </si>
-  <si>
-    <t>DUKES Offensive REBOUND by Wooden, Julien</t>
-  </si>
-  <si>
-    <t>DUKES Defensive REBOUND by Freidel, Noah</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by BEARS's Udemadu, Allen</t>
-  </si>
-  <si>
-    <t>Slam Dunk GOOD by DUKES's Horton, Raekwon</t>
-  </si>
-  <si>
-    <t>BEARS takes a 20-second time out.</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by DUKES's Iii, Michael green</t>
-  </si>
-  <si>
-    <t>Layup GOOD by DUKES's Freidel, Noah</t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by DUKES's Freidel, Noah</t>
-  </si>
-  <si>
-    <t>Free Throw MISSED by DUKES's Brown, Xavier</t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by DUKES's Brown, Xavier</t>
-  </si>
-  <si>
-    <t>DUKES Block by Brown, Xavier</t>
-  </si>
-  <si>
-    <t>BEARS Offensive REBOUND by team</t>
-  </si>
-  <si>
-    <t>Free Throw MISSED by DUKES's Horton, Raekwon</t>
-  </si>
-  <si>
-    <t>DUKES Offensive REBOUND by Horton, Raekwon</t>
-  </si>
-  <si>
-    <t>Layup GOOD by DUKES's Horton, Raekwon</t>
-  </si>
-  <si>
-    <t>DUKES Defensive REBOUND by team</t>
-  </si>
-  <si>
-    <t>Free Throw MISSED by DUKES's Bickerstaff, Tj</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by BEARS's Thomas, Will</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by DUKES's Freidel, Noah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DUKES Assist by ,, </t>
-  </si>
-  <si>
-    <t>Foul on DUKES's Bickerstaff, Tj</t>
-  </si>
-  <si>
-    <t>BEARS takes a TIMEOUT</t>
-  </si>
-  <si>
-    <t>Layup GOOD by DUKES's Bickerstaff, Tj</t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by DUKES's Iii, Michael green</t>
-  </si>
-  <si>
-    <t>BEARS Turnover by Lawson, Rob</t>
-  </si>
-  <si>
-    <t>DUKES Steal by Horton, Raekwon</t>
-  </si>
-  <si>
-    <t>Slam Dunk MISSED by DUKES's Brown, Xavier</t>
-  </si>
-  <si>
-    <t>Layup GOOD by BEARS's Topps, Demajion</t>
+    <t>Morgan Defensive REBOUND by Udemadu, Allen</t>
+  </si>
+  <si>
+    <t>Layup GOOD by Morgan's Hobbs, Kamron</t>
+  </si>
+  <si>
+    <t>Morgan Assist by Lawson, Rob</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by Morgan's Lawson, Rob</t>
+  </si>
+  <si>
+    <t>Foul on Morgan's Udemadu, Allen</t>
+  </si>
+  <si>
+    <t>Subbing in for Morgan - Oliver, Christian</t>
+  </si>
+  <si>
+    <t>Subbing out for Morgan - Udemadu, Allen</t>
+  </si>
+  <si>
+    <t>Layup GOOD by Morgan's Simpkins, Amahrie</t>
+  </si>
+  <si>
+    <t>Morgan Steal by Lawson, Rob</t>
+  </si>
+  <si>
+    <t>Layup MISSED by Morgan's Thomas, Will</t>
+  </si>
+  <si>
+    <t>Morgan Offensive REBOUND by Hobbs, Kamron</t>
+  </si>
+  <si>
+    <t>Layup MISSED by Morgan's Hobbs, Kamron</t>
+  </si>
+  <si>
+    <t>Morgan Defensive REBOUND by Simpkins, Amahrie</t>
+  </si>
+  <si>
+    <t>Layup GOOD by Morgan's Oliver, Christian</t>
+  </si>
+  <si>
+    <t>Foul on Morgan's Hobbs, Kamron</t>
+  </si>
+  <si>
+    <t>Foul on Morgan's Simpkins, Amahrie</t>
+  </si>
+  <si>
+    <t>Morgan Turnover by Simpkins, Amahrie</t>
+  </si>
+  <si>
+    <t>Subbing in for Morgan - Edwards, Trent</t>
+  </si>
+  <si>
+    <t>Subbing out for Morgan - Simpkins, Amahrie</t>
+  </si>
+  <si>
+    <t>Morgan Defensive REBOUND by team</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by Morgan's Lawson, Rob</t>
+  </si>
+  <si>
+    <t>Morgan Defensive REBOUND by Hobbs, Kamron</t>
+  </si>
+  <si>
+    <t>Layup GOOD by Morgan's Edwards, Trent</t>
+  </si>
+  <si>
+    <t>Morgan Assist by Thomas, Will</t>
+  </si>
+  <si>
+    <t>Layup MISSED by Morgan's Lawson, Rob</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by Morgan's Oliver, Christian</t>
+  </si>
+  <si>
+    <t>Morgan Offensive REBOUND by Thomas, Will</t>
+  </si>
+  <si>
+    <t>Morgan Turnover by Oliver, Christian</t>
+  </si>
+  <si>
+    <t>Subbing in for Morgan - Udemadu, Allen</t>
+  </si>
+  <si>
+    <t>Subbing out for Morgan - Oliver, Christian</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by Morgan's Thomas, Will</t>
+  </si>
+  <si>
+    <t>Morgan Assist by Hobbs, Kamron</t>
+  </si>
+  <si>
+    <t>Layup MISSED by Morgan's Udemadu, Allen</t>
+  </si>
+  <si>
+    <t>Morgan Defensive REBOUND by Edwards, Trent</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by Morgan's Hobbs, Kamron</t>
+  </si>
+  <si>
+    <t>Foul on Morgan's Edwards, Trent</t>
+  </si>
+  <si>
+    <t>Subbing in for Morgan - Oliver, Kiran</t>
+  </si>
+  <si>
+    <t>Subbing in for Morgan - Topps, Demajion</t>
+  </si>
+  <si>
+    <t>Subbing in for Morgan - Tabbs, Wynston</t>
+  </si>
+  <si>
+    <t>Subbing in for Morgan - Brimage, Marvin</t>
+  </si>
+  <si>
+    <t>Subbing out for Morgan - Edwards, Trent</t>
+  </si>
+  <si>
+    <t>Subbing out for Morgan - Lawson, Rob</t>
+  </si>
+  <si>
+    <t>Subbing out for Morgan - Thomas, Will</t>
+  </si>
+  <si>
+    <t>Subbing in for Morgan - Lawson, Rob</t>
+  </si>
+  <si>
+    <t>Subbing in for Morgan - Simpkins, Amahrie</t>
+  </si>
+  <si>
+    <t>Subbing out for Morgan - Oliver, Kiran</t>
+  </si>
+  <si>
+    <t>Subbing out for Morgan - Topps, Demajion</t>
+  </si>
+  <si>
+    <t>Subbing out for Morgan - Tabbs, Wynston</t>
+  </si>
+  <si>
+    <t>Subbing out for Morgan - Brimage, Marvin</t>
+  </si>
+  <si>
+    <t>Layup MISSED by Morgan's Simpkins, Amahrie</t>
+  </si>
+  <si>
+    <t>Morgan Offensive REBOUND by Udemadu, Allen</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by Morgan's Topps, Demajion</t>
+  </si>
+  <si>
+    <t>Morgan Defensive REBOUND by Lawson, Rob</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by Morgan's Hobbs, Kamron</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by Morgan's Simpkins, Amahrie</t>
+  </si>
+  <si>
+    <t>Subbing in for Morgan - Thomas, Will</t>
+  </si>
+  <si>
+    <t>Subbing out for Morgan - Hobbs, Kamron</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by Morgan's Thomas, Will</t>
+  </si>
+  <si>
+    <t>Morgan Offensive REBOUND by Brimage, Marvin</t>
+  </si>
+  <si>
+    <t>Layup MISSED by Morgan's Brimage, Marvin</t>
+  </si>
+  <si>
+    <t>Morgan Defensive REBOUND by Thomas, Will</t>
+  </si>
+  <si>
+    <t>Subbing in for Morgan - Hobbs, Kamron</t>
+  </si>
+  <si>
+    <t>Morgan Turnover by Hobbs, Kamron</t>
+  </si>
+  <si>
+    <t>Foul on Morgan's Lawson, Rob</t>
+  </si>
+  <si>
+    <t>Morgan Turnover by Edwards, Trent</t>
+  </si>
+  <si>
+    <t>Morgan Turnover by Udemadu, Allen</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by Morgan's Lawson, Rob</t>
+  </si>
+  <si>
+    <t>Morgan takes a 30-second time out.</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by Morgan's Udemadu, Allen</t>
+  </si>
+  <si>
+    <t>Morgan Steal by Oliver, Christian</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by Morgan's Hobbs, Kamron</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by Morgan's Thomas, Will</t>
+  </si>
+  <si>
+    <t>Morgan gets a REBOUND from a dead ball.</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by Morgan's Thomas, Will</t>
+  </si>
+  <si>
+    <t>Foul on Morgan's Oliver, Christian</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by Morgan's Topps, Demajion</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by Morgan's Topps, Demajion</t>
+  </si>
+  <si>
+    <t>Layup GOOD by Morgan's Lawson, Rob</t>
+  </si>
+  <si>
+    <t>Morgan Defensive REBOUND by Oliver, Christian</t>
+  </si>
+  <si>
+    <t>Morgan Defensive REBOUND by Topps, Demajion</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by Morgan's Hobbs, Kamron</t>
+  </si>
+  <si>
+    <t>Foul on Morgan's Topps, Demajion</t>
+  </si>
+  <si>
+    <t>Morgan Turnover by Thomas, Will</t>
+  </si>
+  <si>
+    <t>Layup GOOD by Morgan's Udemadu, Allen</t>
+  </si>
+  <si>
+    <t>Morgan Assist by Simpkins, Amahrie</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by Morgan's Simpkins, Amahrie</t>
+  </si>
+  <si>
+    <t>Morgan Steal by Hobbs, Kamron</t>
+  </si>
+  <si>
+    <t>Foul on Morgan's Thomas, Will</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by Morgan's Thomas, Will</t>
+  </si>
+  <si>
+    <t>Morgan Block by Simpkins, Amahrie</t>
+  </si>
+  <si>
+    <t>Layup GOOD by Morgan's Thomas, Will</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by Morgan's Udemadu, Allen</t>
+  </si>
+  <si>
+    <t>Morgan takes a 20-second time out.</t>
+  </si>
+  <si>
+    <t>Morgan Offensive REBOUND by team</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by Morgan's Thomas, Will</t>
+  </si>
+  <si>
+    <t>Morgan takes a TIMEOUT</t>
+  </si>
+  <si>
+    <t>Morgan Turnover by Lawson, Rob</t>
+  </si>
+  <si>
+    <t>Layup GOOD by Morgan's Topps, Demajion</t>
+  </si>
+  <si>
+    <t>Layup MISSED by JMU's Freidel, Noah</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by JMU's Freidel, Noah</t>
+  </si>
+  <si>
+    <t>JMU Offensive REBOUND by team</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by JMU's Wooden, Julien</t>
+  </si>
+  <si>
+    <t>JMU Offensive REBOUND by Iii, Michael green</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by JMU's Bickerstaff, Tj</t>
+  </si>
+  <si>
+    <t>JMU Defensive REBOUND by Bickerstaff, Tj</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by JMU's Bickerstaff, Tj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMU Turnover by ,, </t>
+  </si>
+  <si>
+    <t>JMU Defensive REBOUND by Horton, Raekwon</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by JMU's Iii, Michael green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumper GOOD by JMU's ,, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMU Defensive REBOUND by ,, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foul on JMU's ,, </t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by JMU's Iii, Michael green</t>
+  </si>
+  <si>
+    <t>JMU Assist by Brown, Xavier</t>
+  </si>
+  <si>
+    <t>Foul on JMU's Iii, Michael green</t>
+  </si>
+  <si>
+    <t>Subbing in for JMU - Horton, Raekwon</t>
+  </si>
+  <si>
+    <t>Subbing in for JMU - Brown, Xavier</t>
+  </si>
+  <si>
+    <t>Subbing in for JMU - Carey, Jaylen</t>
+  </si>
+  <si>
+    <t>Subbing out for JMU - Bickerstaff, Tj</t>
+  </si>
+  <si>
+    <t>Subbing out for JMU - Freidel, Noah</t>
+  </si>
+  <si>
+    <t>Subbing out for JMU - Wooden, Julien</t>
+  </si>
+  <si>
+    <t>Layup GOOD by JMU's Carey, Jaylen</t>
+  </si>
+  <si>
+    <t>JMU Assist by Iii, Michael green</t>
+  </si>
+  <si>
+    <t>JMU Defensive REBOUND by Brown, Xavier</t>
+  </si>
+  <si>
+    <t>Layup MISSED by JMU's Brown, Xavier</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by JMU's Horton, Raekwon</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by JMU's Horton, Raekwon</t>
+  </si>
+  <si>
+    <t>JMU Assist by Freidel, Noah</t>
+  </si>
+  <si>
+    <t>JMU Defensive REBOUND by Randleman, Bryant</t>
+  </si>
+  <si>
+    <t>JMU Turnover by Horton, Raekwon</t>
+  </si>
+  <si>
+    <t>Subbing in for JMU - Freidel, Noah</t>
+  </si>
+  <si>
+    <t>Subbing in for JMU - Bickerstaff, Tj</t>
+  </si>
+  <si>
+    <t>Subbing in for JMU - Randleman, Bryant</t>
+  </si>
+  <si>
+    <t>Subbing out for JMU - Iii, Michael green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subbing out for JMU - ,, </t>
+  </si>
+  <si>
+    <t>Subbing out for JMU - Carey, Jaylen</t>
+  </si>
+  <si>
+    <t>Foul on JMU's Horton, Raekwon</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by JMU's Brown, Xavier</t>
+  </si>
+  <si>
+    <t>Foul on JMU's Freidel, Noah</t>
+  </si>
+  <si>
+    <t>Subbing in for JMU - Smith, Hollman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subbing in for JMU - ,, </t>
+  </si>
+  <si>
+    <t>Subbing out for JMU - Horton, Raekwon</t>
+  </si>
+  <si>
+    <t>Subbing out for JMU - Brown, Xavier</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by JMU's Wooden, Julien</t>
+  </si>
+  <si>
+    <t>JMU Assist by Randleman, Bryant</t>
+  </si>
+  <si>
+    <t>Subbing in for JMU - Iii, Michael green</t>
+  </si>
+  <si>
+    <t>Subbing out for JMU - Randleman, Bryant</t>
+  </si>
+  <si>
+    <t>JMU Steal by Brown, Xavier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layup GOOD by JMU's ,, </t>
+  </si>
+  <si>
+    <t>JMU Steal by Wooden, Julien</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by JMU's Wooden, Julien</t>
+  </si>
+  <si>
+    <t>Subbing in for JMU - Wooden, Julien</t>
+  </si>
+  <si>
+    <t>Subbing out for JMU - Smith, Hollman</t>
+  </si>
+  <si>
+    <t>Foul on JMU's Wooden, Julien</t>
+  </si>
+  <si>
+    <t>JMU Steal by Bickerstaff, Tj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 Pointer MISSED by JMU's ,, </t>
+  </si>
+  <si>
+    <t>JMU Offensive REBOUND by Freidel, Noah</t>
+  </si>
+  <si>
+    <t>JMU Turnover by Freidel, Noah</t>
+  </si>
+  <si>
+    <t>Layup GOOD by JMU's Wooden, Julien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 Pointer GOOD by JMU's ,, </t>
+  </si>
+  <si>
+    <t>JMU Turnover by Brown, Xavier</t>
+  </si>
+  <si>
+    <t>JMU Defensive REBOUND by Carey, Jaylen</t>
+  </si>
+  <si>
+    <t>Foul on JMU's Carey, Jaylen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free Throw GOOD by JMU's ,, </t>
+  </si>
+  <si>
+    <t>JMU Turnover by Iii, Michael green</t>
+  </si>
+  <si>
+    <t>Layup MISSED by JMU's Iii, Michael green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layup MISSED by JMU's ,, </t>
+  </si>
+  <si>
+    <t>JMU Offensive REBOUND by Bickerstaff, Tj</t>
+  </si>
+  <si>
+    <t>Layup MISSED by JMU's Bickerstaff, Tj</t>
+  </si>
+  <si>
+    <t>Layup GOOD by JMU's Iii, Michael green</t>
+  </si>
+  <si>
+    <t>JMU takes a 30-second time out.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free Throw MISSED by JMU's ,, </t>
+  </si>
+  <si>
+    <t>JMU gets a REBOUND from a dead ball.</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by JMU's Bickerstaff, Tj</t>
+  </si>
+  <si>
+    <t>JMU Block by Wooden, Julien</t>
+  </si>
+  <si>
+    <t>JMU Defensive REBOUND by Wooden, Julien</t>
+  </si>
+  <si>
+    <t>JMU Offensive REBOUND by Carey, Jaylen</t>
+  </si>
+  <si>
+    <t>JMU Turnover by Wooden, Julien</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by JMU's Brown, Xavier</t>
+  </si>
+  <si>
+    <t>JMU Assist by Horton, Raekwon</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by JMU's Horton, Raekwon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMU Offensive REBOUND by ,, </t>
+  </si>
+  <si>
+    <t>Foul on JMU's Brown, Xavier</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by JMU's Brown, Xavier</t>
+  </si>
+  <si>
+    <t>JMU Offensive REBOUND by Wooden, Julien</t>
+  </si>
+  <si>
+    <t>JMU Defensive REBOUND by Freidel, Noah</t>
+  </si>
+  <si>
+    <t>Slam Dunk GOOD by JMU's Horton, Raekwon</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by JMU's Iii, Michael green</t>
+  </si>
+  <si>
+    <t>Layup GOOD by JMU's Freidel, Noah</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by JMU's Freidel, Noah</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by JMU's Brown, Xavier</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by JMU's Brown, Xavier</t>
+  </si>
+  <si>
+    <t>JMU Block by Brown, Xavier</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by JMU's Horton, Raekwon</t>
+  </si>
+  <si>
+    <t>JMU Offensive REBOUND by Horton, Raekwon</t>
+  </si>
+  <si>
+    <t>Layup GOOD by JMU's Horton, Raekwon</t>
+  </si>
+  <si>
+    <t>JMU Defensive REBOUND by team</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by JMU's Bickerstaff, Tj</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by JMU's Freidel, Noah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMU Assist by ,, </t>
+  </si>
+  <si>
+    <t>Foul on JMU's Bickerstaff, Tj</t>
+  </si>
+  <si>
+    <t>Layup GOOD by JMU's Bickerstaff, Tj</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by JMU's Iii, Michael green</t>
+  </si>
+  <si>
+    <t>JMU Steal by Horton, Raekwon</t>
+  </si>
+  <si>
+    <t>Slam Dunk MISSED by JMU's Brown, Xavier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1307,13 +1313,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1351,7 +1365,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1385,6 +1399,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1419,9 +1434,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1594,14 +1610,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E509"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1618,7 +1634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1632,10 +1648,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1652,7 +1668,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1669,7 +1685,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1686,7 +1702,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1700,10 +1716,10 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1717,10 +1733,10 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1734,10 +1750,10 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1751,10 +1767,10 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1768,10 +1784,10 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1785,10 +1801,10 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1802,10 +1818,10 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1819,10 +1835,10 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1836,10 +1852,10 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1853,10 +1869,10 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1870,10 +1886,10 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1887,10 +1903,10 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1904,10 +1920,10 @@
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1921,10 +1937,10 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1938,10 +1954,10 @@
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1955,10 +1971,10 @@
         <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1972,10 +1988,10 @@
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1989,10 +2005,10 @@
         <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2006,10 +2022,10 @@
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2023,10 +2039,10 @@
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2040,10 +2056,10 @@
         <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2057,10 +2073,10 @@
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2074,10 +2090,10 @@
         <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2091,10 +2107,10 @@
         <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2108,10 +2124,10 @@
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2125,10 +2141,10 @@
         <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2142,10 +2158,10 @@
         <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2159,10 +2175,10 @@
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2176,10 +2192,10 @@
         <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2193,10 +2209,10 @@
         <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2210,10 +2226,10 @@
         <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2227,10 +2243,10 @@
         <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2244,10 +2260,10 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2261,10 +2277,10 @@
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2278,10 +2294,10 @@
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2295,10 +2311,10 @@
         <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2312,10 +2328,10 @@
         <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2329,10 +2345,10 @@
         <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2346,10 +2362,10 @@
         <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2363,10 +2379,10 @@
         <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2380,10 +2396,10 @@
         <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2397,10 +2413,10 @@
         <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2414,10 +2430,10 @@
         <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2431,10 +2447,10 @@
         <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2448,10 +2464,10 @@
         <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2465,10 +2481,10 @@
         <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2482,10 +2498,10 @@
         <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2499,10 +2515,10 @@
         <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2516,10 +2532,10 @@
         <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2533,10 +2549,10 @@
         <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -2550,10 +2566,10 @@
         <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -2567,10 +2583,10 @@
         <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -2584,10 +2600,10 @@
         <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -2601,10 +2617,10 @@
         <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2618,10 +2634,10 @@
         <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -2635,10 +2651,10 @@
         <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2652,10 +2668,10 @@
         <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2669,10 +2685,10 @@
         <v>12</v>
       </c>
       <c r="E63" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2686,10 +2702,10 @@
         <v>12</v>
       </c>
       <c r="E64" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -2703,10 +2719,10 @@
         <v>12</v>
       </c>
       <c r="E65" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -2720,10 +2736,10 @@
         <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -2737,10 +2753,10 @@
         <v>12</v>
       </c>
       <c r="E67" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -2754,10 +2770,10 @@
         <v>12</v>
       </c>
       <c r="E68" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -2771,10 +2787,10 @@
         <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -2788,10 +2804,10 @@
         <v>12</v>
       </c>
       <c r="E70" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -2805,10 +2821,10 @@
         <v>14</v>
       </c>
       <c r="E71" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -2822,10 +2838,10 @@
         <v>14</v>
       </c>
       <c r="E72" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -2839,10 +2855,10 @@
         <v>14</v>
       </c>
       <c r="E73" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
@@ -2856,10 +2872,10 @@
         <v>14</v>
       </c>
       <c r="E74" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -2873,10 +2889,10 @@
         <v>14</v>
       </c>
       <c r="E75" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -2890,10 +2906,10 @@
         <v>14</v>
       </c>
       <c r="E76" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
@@ -2907,10 +2923,10 @@
         <v>14</v>
       </c>
       <c r="E77" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
@@ -2924,10 +2940,10 @@
         <v>14</v>
       </c>
       <c r="E78" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -2941,10 +2957,10 @@
         <v>14</v>
       </c>
       <c r="E79" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
@@ -2958,10 +2974,10 @@
         <v>14</v>
       </c>
       <c r="E80" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
@@ -2975,10 +2991,10 @@
         <v>14</v>
       </c>
       <c r="E81" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -2992,10 +3008,10 @@
         <v>14</v>
       </c>
       <c r="E82" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -3009,10 +3025,10 @@
         <v>16</v>
       </c>
       <c r="E83" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1</v>
       </c>
@@ -3026,10 +3042,10 @@
         <v>16</v>
       </c>
       <c r="E84" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
@@ -3043,10 +3059,10 @@
         <v>16</v>
       </c>
       <c r="E85" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
@@ -3060,10 +3076,10 @@
         <v>16</v>
       </c>
       <c r="E86" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1</v>
       </c>
@@ -3077,10 +3093,10 @@
         <v>16</v>
       </c>
       <c r="E87" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -3094,10 +3110,10 @@
         <v>16</v>
       </c>
       <c r="E88" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -3111,10 +3127,10 @@
         <v>16</v>
       </c>
       <c r="E89" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
@@ -3128,10 +3144,10 @@
         <v>16</v>
       </c>
       <c r="E90" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
@@ -3145,10 +3161,10 @@
         <v>16</v>
       </c>
       <c r="E91" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -3162,10 +3178,10 @@
         <v>16</v>
       </c>
       <c r="E92" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -3179,10 +3195,10 @@
         <v>16</v>
       </c>
       <c r="E93" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -3196,10 +3212,10 @@
         <v>16</v>
       </c>
       <c r="E94" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
@@ -3213,10 +3229,10 @@
         <v>16</v>
       </c>
       <c r="E95" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -3230,10 +3246,10 @@
         <v>16</v>
       </c>
       <c r="E96" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1</v>
       </c>
@@ -3247,10 +3263,10 @@
         <v>16</v>
       </c>
       <c r="E97" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -3264,10 +3280,10 @@
         <v>16</v>
       </c>
       <c r="E98" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
@@ -3281,10 +3297,10 @@
         <v>16</v>
       </c>
       <c r="E99" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
@@ -3298,10 +3314,10 @@
         <v>16</v>
       </c>
       <c r="E100" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
@@ -3315,10 +3331,10 @@
         <v>16</v>
       </c>
       <c r="E101" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1</v>
       </c>
@@ -3332,10 +3348,10 @@
         <v>16</v>
       </c>
       <c r="E102" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1</v>
       </c>
@@ -3349,10 +3365,10 @@
         <v>16</v>
       </c>
       <c r="E103" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1</v>
       </c>
@@ -3366,10 +3382,10 @@
         <v>16</v>
       </c>
       <c r="E104" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
@@ -3383,10 +3399,10 @@
         <v>16</v>
       </c>
       <c r="E105" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1</v>
       </c>
@@ -3400,10 +3416,10 @@
         <v>16</v>
       </c>
       <c r="E106" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1</v>
       </c>
@@ -3417,10 +3433,10 @@
         <v>18</v>
       </c>
       <c r="E107" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
@@ -3434,10 +3450,10 @@
         <v>18</v>
       </c>
       <c r="E108" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1</v>
       </c>
@@ -3451,10 +3467,10 @@
         <v>19</v>
       </c>
       <c r="E109" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1</v>
       </c>
@@ -3468,10 +3484,10 @@
         <v>19</v>
       </c>
       <c r="E110" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1</v>
       </c>
@@ -3485,10 +3501,10 @@
         <v>19</v>
       </c>
       <c r="E111" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1</v>
       </c>
@@ -3502,10 +3518,10 @@
         <v>19</v>
       </c>
       <c r="E112" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1</v>
       </c>
@@ -3519,10 +3535,10 @@
         <v>19</v>
       </c>
       <c r="E113" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
@@ -3536,10 +3552,10 @@
         <v>19</v>
       </c>
       <c r="E114" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1</v>
       </c>
@@ -3553,10 +3569,10 @@
         <v>19</v>
       </c>
       <c r="E115" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1</v>
       </c>
@@ -3570,10 +3586,10 @@
         <v>19</v>
       </c>
       <c r="E116" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1</v>
       </c>
@@ -3587,10 +3603,10 @@
         <v>19</v>
       </c>
       <c r="E117" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1</v>
       </c>
@@ -3604,10 +3620,10 @@
         <v>19</v>
       </c>
       <c r="E118" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1</v>
       </c>
@@ -3621,10 +3637,10 @@
         <v>19</v>
       </c>
       <c r="E119" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1</v>
       </c>
@@ -3638,10 +3654,10 @@
         <v>19</v>
       </c>
       <c r="E120" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
@@ -3655,10 +3671,10 @@
         <v>19</v>
       </c>
       <c r="E121" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1</v>
       </c>
@@ -3672,10 +3688,10 @@
         <v>19</v>
       </c>
       <c r="E122" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1</v>
       </c>
@@ -3689,10 +3705,10 @@
         <v>19</v>
       </c>
       <c r="E123" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
@@ -3706,10 +3722,10 @@
         <v>19</v>
       </c>
       <c r="E124" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1</v>
       </c>
@@ -3723,10 +3739,10 @@
         <v>19</v>
       </c>
       <c r="E125" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1</v>
       </c>
@@ -3740,10 +3756,10 @@
         <v>19</v>
       </c>
       <c r="E126" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1</v>
       </c>
@@ -3757,10 +3773,10 @@
         <v>19</v>
       </c>
       <c r="E127" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -3774,10 +3790,10 @@
         <v>19</v>
       </c>
       <c r="E128" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1</v>
       </c>
@@ -3791,10 +3807,10 @@
         <v>19</v>
       </c>
       <c r="E129" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1</v>
       </c>
@@ -3808,10 +3824,10 @@
         <v>19</v>
       </c>
       <c r="E130" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1</v>
       </c>
@@ -3825,10 +3841,10 @@
         <v>19</v>
       </c>
       <c r="E131" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1</v>
       </c>
@@ -3842,10 +3858,10 @@
         <v>19</v>
       </c>
       <c r="E132" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -3859,10 +3875,10 @@
         <v>19</v>
       </c>
       <c r="E133" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1</v>
       </c>
@@ -3876,10 +3892,10 @@
         <v>19</v>
       </c>
       <c r="E134" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1</v>
       </c>
@@ -3893,10 +3909,10 @@
         <v>19</v>
       </c>
       <c r="E135" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1</v>
       </c>
@@ -3910,10 +3926,10 @@
         <v>19</v>
       </c>
       <c r="E136" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1</v>
       </c>
@@ -3927,10 +3943,10 @@
         <v>19</v>
       </c>
       <c r="E137" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1</v>
       </c>
@@ -3944,10 +3960,10 @@
         <v>19</v>
       </c>
       <c r="E138" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1</v>
       </c>
@@ -3961,10 +3977,10 @@
         <v>19</v>
       </c>
       <c r="E139" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1</v>
       </c>
@@ -3978,10 +3994,10 @@
         <v>19</v>
       </c>
       <c r="E140" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1</v>
       </c>
@@ -3995,10 +4011,10 @@
         <v>19</v>
       </c>
       <c r="E141" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1</v>
       </c>
@@ -4012,10 +4028,10 @@
         <v>19</v>
       </c>
       <c r="E142" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1</v>
       </c>
@@ -4029,10 +4045,10 @@
         <v>19</v>
       </c>
       <c r="E143" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1</v>
       </c>
@@ -4046,10 +4062,10 @@
         <v>19</v>
       </c>
       <c r="E144" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1</v>
       </c>
@@ -4063,10 +4079,10 @@
         <v>19</v>
       </c>
       <c r="E145" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1</v>
       </c>
@@ -4080,10 +4096,10 @@
         <v>19</v>
       </c>
       <c r="E146" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1</v>
       </c>
@@ -4097,10 +4113,10 @@
         <v>19</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1</v>
       </c>
@@ -4114,10 +4130,10 @@
         <v>19</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1</v>
       </c>
@@ -4131,10 +4147,10 @@
         <v>19</v>
       </c>
       <c r="E149" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1</v>
       </c>
@@ -4148,10 +4164,10 @@
         <v>19</v>
       </c>
       <c r="E150" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1</v>
       </c>
@@ -4165,10 +4181,10 @@
         <v>19</v>
       </c>
       <c r="E151" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1</v>
       </c>
@@ -4182,10 +4198,10 @@
         <v>19</v>
       </c>
       <c r="E152" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1</v>
       </c>
@@ -4199,10 +4215,10 @@
         <v>19</v>
       </c>
       <c r="E153" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1</v>
       </c>
@@ -4216,10 +4232,10 @@
         <v>19</v>
       </c>
       <c r="E154" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1</v>
       </c>
@@ -4233,10 +4249,10 @@
         <v>19</v>
       </c>
       <c r="E155" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1</v>
       </c>
@@ -4250,10 +4266,10 @@
         <v>19</v>
       </c>
       <c r="E156" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1</v>
       </c>
@@ -4267,10 +4283,10 @@
         <v>19</v>
       </c>
       <c r="E157" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1</v>
       </c>
@@ -4284,10 +4300,10 @@
         <v>19</v>
       </c>
       <c r="E158" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1</v>
       </c>
@@ -4301,10 +4317,10 @@
         <v>19</v>
       </c>
       <c r="E159" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1</v>
       </c>
@@ -4318,10 +4334,10 @@
         <v>19</v>
       </c>
       <c r="E160" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1</v>
       </c>
@@ -4335,10 +4351,10 @@
         <v>19</v>
       </c>
       <c r="E161" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1</v>
       </c>
@@ -4352,10 +4368,10 @@
         <v>19</v>
       </c>
       <c r="E162" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1</v>
       </c>
@@ -4369,10 +4385,10 @@
         <v>19</v>
       </c>
       <c r="E163" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1</v>
       </c>
@@ -4386,10 +4402,10 @@
         <v>19</v>
       </c>
       <c r="E164" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1</v>
       </c>
@@ -4403,10 +4419,10 @@
         <v>19</v>
       </c>
       <c r="E165" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1</v>
       </c>
@@ -4420,10 +4436,10 @@
         <v>19</v>
       </c>
       <c r="E166" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1</v>
       </c>
@@ -4437,10 +4453,10 @@
         <v>19</v>
       </c>
       <c r="E167" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1</v>
       </c>
@@ -4454,10 +4470,10 @@
         <v>19</v>
       </c>
       <c r="E168" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1</v>
       </c>
@@ -4471,10 +4487,10 @@
         <v>19</v>
       </c>
       <c r="E169" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1</v>
       </c>
@@ -4488,10 +4504,10 @@
         <v>19</v>
       </c>
       <c r="E170" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1</v>
       </c>
@@ -4505,10 +4521,10 @@
         <v>19</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1</v>
       </c>
@@ -4522,10 +4538,10 @@
         <v>19</v>
       </c>
       <c r="E172" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1</v>
       </c>
@@ -4539,10 +4555,10 @@
         <v>19</v>
       </c>
       <c r="E173" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1</v>
       </c>
@@ -4556,10 +4572,10 @@
         <v>19</v>
       </c>
       <c r="E174" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1</v>
       </c>
@@ -4573,10 +4589,10 @@
         <v>19</v>
       </c>
       <c r="E175" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1</v>
       </c>
@@ -4590,10 +4606,10 @@
         <v>19</v>
       </c>
       <c r="E176" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1</v>
       </c>
@@ -4607,10 +4623,10 @@
         <v>19</v>
       </c>
       <c r="E177" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1</v>
       </c>
@@ -4624,10 +4640,10 @@
         <v>19</v>
       </c>
       <c r="E178" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1</v>
       </c>
@@ -4641,10 +4657,10 @@
         <v>19</v>
       </c>
       <c r="E179" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1</v>
       </c>
@@ -4658,10 +4674,10 @@
         <v>21</v>
       </c>
       <c r="E180" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1</v>
       </c>
@@ -4675,10 +4691,10 @@
         <v>21</v>
       </c>
       <c r="E181" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1</v>
       </c>
@@ -4692,10 +4708,10 @@
         <v>21</v>
       </c>
       <c r="E182" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1</v>
       </c>
@@ -4709,10 +4725,10 @@
         <v>21</v>
       </c>
       <c r="E183" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1</v>
       </c>
@@ -4726,10 +4742,10 @@
         <v>21</v>
       </c>
       <c r="E184" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1</v>
       </c>
@@ -4743,10 +4759,10 @@
         <v>21</v>
       </c>
       <c r="E185" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1</v>
       </c>
@@ -4760,10 +4776,10 @@
         <v>21</v>
       </c>
       <c r="E186" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1</v>
       </c>
@@ -4777,10 +4793,10 @@
         <v>22</v>
       </c>
       <c r="E187" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1</v>
       </c>
@@ -4794,10 +4810,10 @@
         <v>23</v>
       </c>
       <c r="E188" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1</v>
       </c>
@@ -4811,10 +4827,10 @@
         <v>23</v>
       </c>
       <c r="E189" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1</v>
       </c>
@@ -4828,10 +4844,10 @@
         <v>23</v>
       </c>
       <c r="E190" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1</v>
       </c>
@@ -4845,10 +4861,10 @@
         <v>23</v>
       </c>
       <c r="E191" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1</v>
       </c>
@@ -4862,10 +4878,10 @@
         <v>23</v>
       </c>
       <c r="E192" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1</v>
       </c>
@@ -4879,10 +4895,10 @@
         <v>23</v>
       </c>
       <c r="E193" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1</v>
       </c>
@@ -4896,10 +4912,10 @@
         <v>23</v>
       </c>
       <c r="E194" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1</v>
       </c>
@@ -4913,10 +4929,10 @@
         <v>23</v>
       </c>
       <c r="E195" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1</v>
       </c>
@@ -4930,10 +4946,10 @@
         <v>23</v>
       </c>
       <c r="E196" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1</v>
       </c>
@@ -4947,10 +4963,10 @@
         <v>23</v>
       </c>
       <c r="E197" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1</v>
       </c>
@@ -4964,10 +4980,10 @@
         <v>23</v>
       </c>
       <c r="E198" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1</v>
       </c>
@@ -4981,10 +4997,10 @@
         <v>23</v>
       </c>
       <c r="E199" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1</v>
       </c>
@@ -4998,10 +5014,10 @@
         <v>23</v>
       </c>
       <c r="E200" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1</v>
       </c>
@@ -5015,10 +5031,10 @@
         <v>23</v>
       </c>
       <c r="E201" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1</v>
       </c>
@@ -5032,10 +5048,10 @@
         <v>23</v>
       </c>
       <c r="E202" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1</v>
       </c>
@@ -5049,10 +5065,10 @@
         <v>23</v>
       </c>
       <c r="E203" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1</v>
       </c>
@@ -5066,10 +5082,10 @@
         <v>25</v>
       </c>
       <c r="E204" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1</v>
       </c>
@@ -5083,10 +5099,10 @@
         <v>25</v>
       </c>
       <c r="E205" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1</v>
       </c>
@@ -5100,10 +5116,10 @@
         <v>25</v>
       </c>
       <c r="E206" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1</v>
       </c>
@@ -5117,10 +5133,10 @@
         <v>25</v>
       </c>
       <c r="E207" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1</v>
       </c>
@@ -5134,10 +5150,10 @@
         <v>25</v>
       </c>
       <c r="E208" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1</v>
       </c>
@@ -5151,10 +5167,10 @@
         <v>26</v>
       </c>
       <c r="E209" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1</v>
       </c>
@@ -5168,10 +5184,10 @@
         <v>26</v>
       </c>
       <c r="E210" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1</v>
       </c>
@@ -5185,10 +5201,10 @@
         <v>26</v>
       </c>
       <c r="E211" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1</v>
       </c>
@@ -5202,10 +5218,10 @@
         <v>26</v>
       </c>
       <c r="E212" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1</v>
       </c>
@@ -5219,10 +5235,10 @@
         <v>26</v>
       </c>
       <c r="E213" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1</v>
       </c>
@@ -5236,10 +5252,10 @@
         <v>26</v>
       </c>
       <c r="E214" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1</v>
       </c>
@@ -5253,10 +5269,10 @@
         <v>26</v>
       </c>
       <c r="E215" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1</v>
       </c>
@@ -5270,10 +5286,10 @@
         <v>26</v>
       </c>
       <c r="E216" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1</v>
       </c>
@@ -5287,10 +5303,10 @@
         <v>27</v>
       </c>
       <c r="E217" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1</v>
       </c>
@@ -5304,10 +5320,10 @@
         <v>28</v>
       </c>
       <c r="E218" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1</v>
       </c>
@@ -5321,10 +5337,10 @@
         <v>28</v>
       </c>
       <c r="E219" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1</v>
       </c>
@@ -5338,10 +5354,10 @@
         <v>28</v>
       </c>
       <c r="E220" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1</v>
       </c>
@@ -5355,10 +5371,10 @@
         <v>28</v>
       </c>
       <c r="E221" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1</v>
       </c>
@@ -5372,10 +5388,10 @@
         <v>28</v>
       </c>
       <c r="E222" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1</v>
       </c>
@@ -5389,10 +5405,10 @@
         <v>28</v>
       </c>
       <c r="E223" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1</v>
       </c>
@@ -5406,10 +5422,10 @@
         <v>28</v>
       </c>
       <c r="E224" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1</v>
       </c>
@@ -5423,10 +5439,10 @@
         <v>28</v>
       </c>
       <c r="E225" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1</v>
       </c>
@@ -5440,10 +5456,10 @@
         <v>28</v>
       </c>
       <c r="E226" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1</v>
       </c>
@@ -5457,10 +5473,10 @@
         <v>28</v>
       </c>
       <c r="E227" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1</v>
       </c>
@@ -5474,10 +5490,10 @@
         <v>28</v>
       </c>
       <c r="E228" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1</v>
       </c>
@@ -5491,10 +5507,10 @@
         <v>28</v>
       </c>
       <c r="E229" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1</v>
       </c>
@@ -5508,10 +5524,10 @@
         <v>28</v>
       </c>
       <c r="E230" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1</v>
       </c>
@@ -5525,10 +5541,10 @@
         <v>30</v>
       </c>
       <c r="E231" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1</v>
       </c>
@@ -5542,10 +5558,10 @@
         <v>30</v>
       </c>
       <c r="E232" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1</v>
       </c>
@@ -5559,10 +5575,10 @@
         <v>30</v>
       </c>
       <c r="E233" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1</v>
       </c>
@@ -5576,10 +5592,10 @@
         <v>30</v>
       </c>
       <c r="E234" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1</v>
       </c>
@@ -5593,10 +5609,10 @@
         <v>32</v>
       </c>
       <c r="E235" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1</v>
       </c>
@@ -5610,10 +5626,10 @@
         <v>32</v>
       </c>
       <c r="E236" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1</v>
       </c>
@@ -5627,10 +5643,10 @@
         <v>32</v>
       </c>
       <c r="E237" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1</v>
       </c>
@@ -5644,10 +5660,10 @@
         <v>32</v>
       </c>
       <c r="E238" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1</v>
       </c>
@@ -5661,10 +5677,10 @@
         <v>32</v>
       </c>
       <c r="E239" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1</v>
       </c>
@@ -5678,10 +5694,10 @@
         <v>32</v>
       </c>
       <c r="E240" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1</v>
       </c>
@@ -5695,10 +5711,10 @@
         <v>32</v>
       </c>
       <c r="E241" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1</v>
       </c>
@@ -5712,10 +5728,10 @@
         <v>32</v>
       </c>
       <c r="E242" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1</v>
       </c>
@@ -5729,10 +5745,10 @@
         <v>32</v>
       </c>
       <c r="E243" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1</v>
       </c>
@@ -5746,10 +5762,10 @@
         <v>32</v>
       </c>
       <c r="E244" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1</v>
       </c>
@@ -5763,10 +5779,10 @@
         <v>32</v>
       </c>
       <c r="E245" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1</v>
       </c>
@@ -5780,10 +5796,10 @@
         <v>32</v>
       </c>
       <c r="E246" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1</v>
       </c>
@@ -5797,10 +5813,10 @@
         <v>32</v>
       </c>
       <c r="E247" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1</v>
       </c>
@@ -5814,10 +5830,10 @@
         <v>32</v>
       </c>
       <c r="E248" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1</v>
       </c>
@@ -5831,10 +5847,10 @@
         <v>32</v>
       </c>
       <c r="E249" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1</v>
       </c>
@@ -5848,10 +5864,10 @@
         <v>32</v>
       </c>
       <c r="E250" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1</v>
       </c>
@@ -5865,10 +5881,10 @@
         <v>32</v>
       </c>
       <c r="E251" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1</v>
       </c>
@@ -5882,10 +5898,10 @@
         <v>32</v>
       </c>
       <c r="E252" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1</v>
       </c>
@@ -5899,10 +5915,10 @@
         <v>35</v>
       </c>
       <c r="E253" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1</v>
       </c>
@@ -5916,10 +5932,10 @@
         <v>35</v>
       </c>
       <c r="E254" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1</v>
       </c>
@@ -5933,10 +5949,10 @@
         <v>35</v>
       </c>
       <c r="E255" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1</v>
       </c>
@@ -5950,10 +5966,10 @@
         <v>35</v>
       </c>
       <c r="E256" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1</v>
       </c>
@@ -5967,10 +5983,10 @@
         <v>35</v>
       </c>
       <c r="E257" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1</v>
       </c>
@@ -5984,10 +6000,10 @@
         <v>35</v>
       </c>
       <c r="E258" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1</v>
       </c>
@@ -6001,10 +6017,10 @@
         <v>35</v>
       </c>
       <c r="E259" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1</v>
       </c>
@@ -6018,10 +6034,10 @@
         <v>35</v>
       </c>
       <c r="E260" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1</v>
       </c>
@@ -6035,10 +6051,10 @@
         <v>35</v>
       </c>
       <c r="E261" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1</v>
       </c>
@@ -6052,10 +6068,10 @@
         <v>35</v>
       </c>
       <c r="E262" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1</v>
       </c>
@@ -6069,10 +6085,10 @@
         <v>35</v>
       </c>
       <c r="E263" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1</v>
       </c>
@@ -6086,10 +6102,10 @@
         <v>35</v>
       </c>
       <c r="E264" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1</v>
       </c>
@@ -6103,10 +6119,10 @@
         <v>35</v>
       </c>
       <c r="E265" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1</v>
       </c>
@@ -6120,10 +6136,10 @@
         <v>35</v>
       </c>
       <c r="E266" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1</v>
       </c>
@@ -6137,10 +6153,10 @@
         <v>35</v>
       </c>
       <c r="E267" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1</v>
       </c>
@@ -6154,10 +6170,10 @@
         <v>35</v>
       </c>
       <c r="E268" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1</v>
       </c>
@@ -6171,10 +6187,10 @@
         <v>35</v>
       </c>
       <c r="E269" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1</v>
       </c>
@@ -6188,10 +6204,10 @@
         <v>35</v>
       </c>
       <c r="E270" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1</v>
       </c>
@@ -6205,10 +6221,10 @@
         <v>35</v>
       </c>
       <c r="E271" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1</v>
       </c>
@@ -6222,10 +6238,10 @@
         <v>35</v>
       </c>
       <c r="E272" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1</v>
       </c>
@@ -6239,10 +6255,10 @@
         <v>35</v>
       </c>
       <c r="E273" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1</v>
       </c>
@@ -6256,10 +6272,10 @@
         <v>35</v>
       </c>
       <c r="E274" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1</v>
       </c>
@@ -6273,10 +6289,10 @@
         <v>35</v>
       </c>
       <c r="E275" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1</v>
       </c>
@@ -6290,10 +6306,10 @@
         <v>35</v>
       </c>
       <c r="E276" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>2</v>
       </c>
@@ -6307,10 +6323,10 @@
         <v>35</v>
       </c>
       <c r="E277" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>2</v>
       </c>
@@ -6327,7 +6343,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>2</v>
       </c>
@@ -6341,10 +6357,10 @@
         <v>37</v>
       </c>
       <c r="E279" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>2</v>
       </c>
@@ -6358,10 +6374,10 @@
         <v>37</v>
       </c>
       <c r="E280" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>2</v>
       </c>
@@ -6375,10 +6391,10 @@
         <v>37</v>
       </c>
       <c r="E281" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>2</v>
       </c>
@@ -6392,10 +6408,10 @@
         <v>39</v>
       </c>
       <c r="E282" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>2</v>
       </c>
@@ -6412,7 +6428,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>2</v>
       </c>
@@ -6426,10 +6442,10 @@
         <v>39</v>
       </c>
       <c r="E284" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>2</v>
       </c>
@@ -6443,10 +6459,10 @@
         <v>39</v>
       </c>
       <c r="E285" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>2</v>
       </c>
@@ -6460,10 +6476,10 @@
         <v>41</v>
       </c>
       <c r="E286" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>2</v>
       </c>
@@ -6477,10 +6493,10 @@
         <v>41</v>
       </c>
       <c r="E287" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>2</v>
       </c>
@@ -6494,10 +6510,10 @@
         <v>41</v>
       </c>
       <c r="E288" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>2</v>
       </c>
@@ -6511,10 +6527,10 @@
         <v>41</v>
       </c>
       <c r="E289" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>2</v>
       </c>
@@ -6528,10 +6544,10 @@
         <v>41</v>
       </c>
       <c r="E290" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>2</v>
       </c>
@@ -6545,10 +6561,10 @@
         <v>41</v>
       </c>
       <c r="E291" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>2</v>
       </c>
@@ -6562,10 +6578,10 @@
         <v>41</v>
       </c>
       <c r="E292" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>2</v>
       </c>
@@ -6579,10 +6595,10 @@
         <v>41</v>
       </c>
       <c r="E293" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>2</v>
       </c>
@@ -6596,10 +6612,10 @@
         <v>41</v>
       </c>
       <c r="E294" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>2</v>
       </c>
@@ -6613,10 +6629,10 @@
         <v>41</v>
       </c>
       <c r="E295" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>2</v>
       </c>
@@ -6630,10 +6646,10 @@
         <v>41</v>
       </c>
       <c r="E296" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>2</v>
       </c>
@@ -6647,10 +6663,10 @@
         <v>41</v>
       </c>
       <c r="E297" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>2</v>
       </c>
@@ -6664,10 +6680,10 @@
         <v>41</v>
       </c>
       <c r="E298" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>2</v>
       </c>
@@ -6681,10 +6697,10 @@
         <v>41</v>
       </c>
       <c r="E299" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>2</v>
       </c>
@@ -6698,10 +6714,10 @@
         <v>41</v>
       </c>
       <c r="E300" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>2</v>
       </c>
@@ -6715,10 +6731,10 @@
         <v>41</v>
       </c>
       <c r="E301" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>2</v>
       </c>
@@ -6732,10 +6748,10 @@
         <v>42</v>
       </c>
       <c r="E302" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>2</v>
       </c>
@@ -6749,10 +6765,10 @@
         <v>43</v>
       </c>
       <c r="E303" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>2</v>
       </c>
@@ -6766,10 +6782,10 @@
         <v>43</v>
       </c>
       <c r="E304" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>2</v>
       </c>
@@ -6783,10 +6799,10 @@
         <v>43</v>
       </c>
       <c r="E305" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>2</v>
       </c>
@@ -6800,10 +6816,10 @@
         <v>43</v>
       </c>
       <c r="E306" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>2</v>
       </c>
@@ -6817,10 +6833,10 @@
         <v>45</v>
       </c>
       <c r="E307" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>2</v>
       </c>
@@ -6837,7 +6853,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>2</v>
       </c>
@@ -6851,10 +6867,10 @@
         <v>45</v>
       </c>
       <c r="E309" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>2</v>
       </c>
@@ -6868,10 +6884,10 @@
         <v>45</v>
       </c>
       <c r="E310" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>2</v>
       </c>
@@ -6885,10 +6901,10 @@
         <v>47</v>
       </c>
       <c r="E311" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>2</v>
       </c>
@@ -6902,10 +6918,10 @@
         <v>47</v>
       </c>
       <c r="E312" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>2</v>
       </c>
@@ -6919,10 +6935,10 @@
         <v>47</v>
       </c>
       <c r="E313" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>2</v>
       </c>
@@ -6936,10 +6952,10 @@
         <v>47</v>
       </c>
       <c r="E314" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>2</v>
       </c>
@@ -6953,10 +6969,10 @@
         <v>47</v>
       </c>
       <c r="E315" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>2</v>
       </c>
@@ -6970,10 +6986,10 @@
         <v>47</v>
       </c>
       <c r="E316" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>2</v>
       </c>
@@ -6987,10 +7003,10 @@
         <v>47</v>
       </c>
       <c r="E317" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>2</v>
       </c>
@@ -7004,10 +7020,10 @@
         <v>47</v>
       </c>
       <c r="E318" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>2</v>
       </c>
@@ -7021,10 +7037,10 @@
         <v>47</v>
       </c>
       <c r="E319" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>2</v>
       </c>
@@ -7038,10 +7054,10 @@
         <v>47</v>
       </c>
       <c r="E320" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>2</v>
       </c>
@@ -7055,10 +7071,10 @@
         <v>47</v>
       </c>
       <c r="E321" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>2</v>
       </c>
@@ -7072,10 +7088,10 @@
         <v>47</v>
       </c>
       <c r="E322" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>2</v>
       </c>
@@ -7089,10 +7105,10 @@
         <v>47</v>
       </c>
       <c r="E323" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>2</v>
       </c>
@@ -7106,10 +7122,10 @@
         <v>47</v>
       </c>
       <c r="E324" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>2</v>
       </c>
@@ -7123,10 +7139,10 @@
         <v>47</v>
       </c>
       <c r="E325" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>2</v>
       </c>
@@ -7140,10 +7156,10 @@
         <v>49</v>
       </c>
       <c r="E326" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>2</v>
       </c>
@@ -7160,7 +7176,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>2</v>
       </c>
@@ -7174,10 +7190,10 @@
         <v>49</v>
       </c>
       <c r="E328" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>2</v>
       </c>
@@ -7191,10 +7207,10 @@
         <v>49</v>
       </c>
       <c r="E329" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>2</v>
       </c>
@@ -7208,10 +7224,10 @@
         <v>49</v>
       </c>
       <c r="E330" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>2</v>
       </c>
@@ -7225,10 +7241,10 @@
         <v>49</v>
       </c>
       <c r="E331" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>2</v>
       </c>
@@ -7242,10 +7258,10 @@
         <v>49</v>
       </c>
       <c r="E332" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>2</v>
       </c>
@@ -7259,10 +7275,10 @@
         <v>49</v>
       </c>
       <c r="E333" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>2</v>
       </c>
@@ -7276,10 +7292,10 @@
         <v>49</v>
       </c>
       <c r="E334" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>2</v>
       </c>
@@ -7293,10 +7309,10 @@
         <v>49</v>
       </c>
       <c r="E335" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>2</v>
       </c>
@@ -7310,10 +7326,10 @@
         <v>49</v>
       </c>
       <c r="E336" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>2</v>
       </c>
@@ -7327,10 +7343,10 @@
         <v>49</v>
       </c>
       <c r="E337" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>2</v>
       </c>
@@ -7344,10 +7360,10 @@
         <v>49</v>
       </c>
       <c r="E338" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>2</v>
       </c>
@@ -7361,10 +7377,10 @@
         <v>49</v>
       </c>
       <c r="E339" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>2</v>
       </c>
@@ -7378,10 +7394,10 @@
         <v>49</v>
       </c>
       <c r="E340" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>2</v>
       </c>
@@ -7398,7 +7414,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>2</v>
       </c>
@@ -7412,10 +7428,10 @@
         <v>52</v>
       </c>
       <c r="E342" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>2</v>
       </c>
@@ -7432,7 +7448,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>2</v>
       </c>
@@ -7446,10 +7462,10 @@
         <v>52</v>
       </c>
       <c r="E344" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>2</v>
       </c>
@@ -7463,10 +7479,10 @@
         <v>52</v>
       </c>
       <c r="E345" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>2</v>
       </c>
@@ -7480,10 +7496,10 @@
         <v>52</v>
       </c>
       <c r="E346" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>2</v>
       </c>
@@ -7497,10 +7513,10 @@
         <v>52</v>
       </c>
       <c r="E347" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>2</v>
       </c>
@@ -7514,10 +7530,10 @@
         <v>52</v>
       </c>
       <c r="E348" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>2</v>
       </c>
@@ -7531,10 +7547,10 @@
         <v>52</v>
       </c>
       <c r="E349" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>2</v>
       </c>
@@ -7548,10 +7564,10 @@
         <v>52</v>
       </c>
       <c r="E350" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>2</v>
       </c>
@@ -7565,10 +7581,10 @@
         <v>55</v>
       </c>
       <c r="E351" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>2</v>
       </c>
@@ -7582,10 +7598,10 @@
         <v>55</v>
       </c>
       <c r="E352" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>2</v>
       </c>
@@ -7599,10 +7615,10 @@
         <v>55</v>
       </c>
       <c r="E353" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>2</v>
       </c>
@@ -7616,10 +7632,10 @@
         <v>55</v>
       </c>
       <c r="E354" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>2</v>
       </c>
@@ -7633,10 +7649,10 @@
         <v>57</v>
       </c>
       <c r="E355" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>2</v>
       </c>
@@ -7650,10 +7666,10 @@
         <v>57</v>
       </c>
       <c r="E356" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>2</v>
       </c>
@@ -7667,10 +7683,10 @@
         <v>57</v>
       </c>
       <c r="E357" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>2</v>
       </c>
@@ -7684,10 +7700,10 @@
         <v>58</v>
       </c>
       <c r="E358" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>2</v>
       </c>
@@ -7701,10 +7717,10 @@
         <v>58</v>
       </c>
       <c r="E359" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>2</v>
       </c>
@@ -7718,10 +7734,10 @@
         <v>58</v>
       </c>
       <c r="E360" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>2</v>
       </c>
@@ -7735,10 +7751,10 @@
         <v>58</v>
       </c>
       <c r="E361" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>2</v>
       </c>
@@ -7752,10 +7768,10 @@
         <v>58</v>
       </c>
       <c r="E362" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>2</v>
       </c>
@@ -7769,10 +7785,10 @@
         <v>58</v>
       </c>
       <c r="E363" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>2</v>
       </c>
@@ -7786,10 +7802,10 @@
         <v>58</v>
       </c>
       <c r="E364" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>2</v>
       </c>
@@ -7803,10 +7819,10 @@
         <v>58</v>
       </c>
       <c r="E365" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>2</v>
       </c>
@@ -7820,10 +7836,10 @@
         <v>60</v>
       </c>
       <c r="E366" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>2</v>
       </c>
@@ -7837,10 +7853,10 @@
         <v>60</v>
       </c>
       <c r="E367" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>2</v>
       </c>
@@ -7854,10 +7870,10 @@
         <v>60</v>
       </c>
       <c r="E368" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>2</v>
       </c>
@@ -7871,10 +7887,10 @@
         <v>60</v>
       </c>
       <c r="E369" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>2</v>
       </c>
@@ -7888,10 +7904,10 @@
         <v>60</v>
       </c>
       <c r="E370" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>2</v>
       </c>
@@ -7905,10 +7921,10 @@
         <v>60</v>
       </c>
       <c r="E371" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>2</v>
       </c>
@@ -7922,10 +7938,10 @@
         <v>60</v>
       </c>
       <c r="E372" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>2</v>
       </c>
@@ -7939,10 +7955,10 @@
         <v>60</v>
       </c>
       <c r="E373" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>2</v>
       </c>
@@ -7956,10 +7972,10 @@
         <v>60</v>
       </c>
       <c r="E374" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>2</v>
       </c>
@@ -7973,10 +7989,10 @@
         <v>60</v>
       </c>
       <c r="E375" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>2</v>
       </c>
@@ -7990,10 +8006,10 @@
         <v>60</v>
       </c>
       <c r="E376" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>2</v>
       </c>
@@ -8007,10 +8023,10 @@
         <v>60</v>
       </c>
       <c r="E377" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>2</v>
       </c>
@@ -8024,10 +8040,10 @@
         <v>60</v>
       </c>
       <c r="E378" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>2</v>
       </c>
@@ -8041,10 +8057,10 @@
         <v>60</v>
       </c>
       <c r="E379" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>2</v>
       </c>
@@ -8058,10 +8074,10 @@
         <v>60</v>
       </c>
       <c r="E380" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>2</v>
       </c>
@@ -8075,10 +8091,10 @@
         <v>60</v>
       </c>
       <c r="E381" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>2</v>
       </c>
@@ -8092,10 +8108,10 @@
         <v>62</v>
       </c>
       <c r="E382" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>2</v>
       </c>
@@ -8109,10 +8125,10 @@
         <v>62</v>
       </c>
       <c r="E383" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>2</v>
       </c>
@@ -8126,10 +8142,10 @@
         <v>62</v>
       </c>
       <c r="E384" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>2</v>
       </c>
@@ -8143,10 +8159,10 @@
         <v>62</v>
       </c>
       <c r="E385" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>2</v>
       </c>
@@ -8160,10 +8176,10 @@
         <v>62</v>
       </c>
       <c r="E386" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>2</v>
       </c>
@@ -8177,10 +8193,10 @@
         <v>62</v>
       </c>
       <c r="E387" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>2</v>
       </c>
@@ -8194,10 +8210,10 @@
         <v>62</v>
       </c>
       <c r="E388" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>2</v>
       </c>
@@ -8211,10 +8227,10 @@
         <v>62</v>
       </c>
       <c r="E389" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>2</v>
       </c>
@@ -8228,10 +8244,10 @@
         <v>62</v>
       </c>
       <c r="E390" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>2</v>
       </c>
@@ -8245,10 +8261,10 @@
         <v>62</v>
       </c>
       <c r="E391" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>2</v>
       </c>
@@ -8262,10 +8278,10 @@
         <v>62</v>
       </c>
       <c r="E392" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>2</v>
       </c>
@@ -8279,10 +8295,10 @@
         <v>62</v>
       </c>
       <c r="E393" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>2</v>
       </c>
@@ -8296,10 +8312,10 @@
         <v>62</v>
       </c>
       <c r="E394" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>2</v>
       </c>
@@ -8313,10 +8329,10 @@
         <v>62</v>
       </c>
       <c r="E395" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>2</v>
       </c>
@@ -8330,10 +8346,10 @@
         <v>62</v>
       </c>
       <c r="E396" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>2</v>
       </c>
@@ -8347,10 +8363,10 @@
         <v>62</v>
       </c>
       <c r="E397" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>2</v>
       </c>
@@ -8364,10 +8380,10 @@
         <v>62</v>
       </c>
       <c r="E398" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>2</v>
       </c>
@@ -8381,10 +8397,10 @@
         <v>64</v>
       </c>
       <c r="E399" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>2</v>
       </c>
@@ -8398,10 +8414,10 @@
         <v>64</v>
       </c>
       <c r="E400" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>2</v>
       </c>
@@ -8415,10 +8431,10 @@
         <v>64</v>
       </c>
       <c r="E401" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>2</v>
       </c>
@@ -8432,10 +8448,10 @@
         <v>64</v>
       </c>
       <c r="E402" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>2</v>
       </c>
@@ -8449,10 +8465,10 @@
         <v>64</v>
       </c>
       <c r="E403" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>2</v>
       </c>
@@ -8466,10 +8482,10 @@
         <v>64</v>
       </c>
       <c r="E404" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>2</v>
       </c>
@@ -8483,10 +8499,10 @@
         <v>64</v>
       </c>
       <c r="E405" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>2</v>
       </c>
@@ -8500,10 +8516,10 @@
         <v>64</v>
       </c>
       <c r="E406" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>2</v>
       </c>
@@ -8517,10 +8533,10 @@
         <v>64</v>
       </c>
       <c r="E407" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>2</v>
       </c>
@@ -8534,10 +8550,10 @@
         <v>64</v>
       </c>
       <c r="E408" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>2</v>
       </c>
@@ -8551,10 +8567,10 @@
         <v>64</v>
       </c>
       <c r="E409" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>2</v>
       </c>
@@ -8568,10 +8584,10 @@
         <v>64</v>
       </c>
       <c r="E410" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>2</v>
       </c>
@@ -8585,10 +8601,10 @@
         <v>64</v>
       </c>
       <c r="E411" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>2</v>
       </c>
@@ -8602,10 +8618,10 @@
         <v>66</v>
       </c>
       <c r="E412" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>2</v>
       </c>
@@ -8619,10 +8635,10 @@
         <v>66</v>
       </c>
       <c r="E413" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>2</v>
       </c>
@@ -8636,10 +8652,10 @@
         <v>66</v>
       </c>
       <c r="E414" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>2</v>
       </c>
@@ -8653,10 +8669,10 @@
         <v>66</v>
       </c>
       <c r="E415" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>2</v>
       </c>
@@ -8670,10 +8686,10 @@
         <v>66</v>
       </c>
       <c r="E416" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>2</v>
       </c>
@@ -8687,10 +8703,10 @@
         <v>66</v>
       </c>
       <c r="E417" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>2</v>
       </c>
@@ -8704,10 +8720,10 @@
         <v>66</v>
       </c>
       <c r="E418" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>2</v>
       </c>
@@ -8721,10 +8737,10 @@
         <v>66</v>
       </c>
       <c r="E419" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>2</v>
       </c>
@@ -8738,10 +8754,10 @@
         <v>66</v>
       </c>
       <c r="E420" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>2</v>
       </c>
@@ -8755,10 +8771,10 @@
         <v>66</v>
       </c>
       <c r="E421" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>2</v>
       </c>
@@ -8772,10 +8788,10 @@
         <v>68</v>
       </c>
       <c r="E422" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>2</v>
       </c>
@@ -8789,10 +8805,10 @@
         <v>68</v>
       </c>
       <c r="E423" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>2</v>
       </c>
@@ -8806,10 +8822,10 @@
         <v>68</v>
       </c>
       <c r="E424" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>2</v>
       </c>
@@ -8823,10 +8839,10 @@
         <v>68</v>
       </c>
       <c r="E425" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>2</v>
       </c>
@@ -8840,10 +8856,10 @@
         <v>68</v>
       </c>
       <c r="E426" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>2</v>
       </c>
@@ -8857,10 +8873,10 @@
         <v>68</v>
       </c>
       <c r="E427" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>2</v>
       </c>
@@ -8874,10 +8890,10 @@
         <v>68</v>
       </c>
       <c r="E428" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>2</v>
       </c>
@@ -8891,10 +8907,10 @@
         <v>68</v>
       </c>
       <c r="E429" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>2</v>
       </c>
@@ -8908,10 +8924,10 @@
         <v>68</v>
       </c>
       <c r="E430" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>2</v>
       </c>
@@ -8925,10 +8941,10 @@
         <v>68</v>
       </c>
       <c r="E431" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>2</v>
       </c>
@@ -8942,10 +8958,10 @@
         <v>68</v>
       </c>
       <c r="E432" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>2</v>
       </c>
@@ -8959,10 +8975,10 @@
         <v>68</v>
       </c>
       <c r="E433" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>2</v>
       </c>
@@ -8976,10 +8992,10 @@
         <v>68</v>
       </c>
       <c r="E434" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>2</v>
       </c>
@@ -8993,10 +9009,10 @@
         <v>68</v>
       </c>
       <c r="E435" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>2</v>
       </c>
@@ -9010,10 +9026,10 @@
         <v>68</v>
       </c>
       <c r="E436" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>2</v>
       </c>
@@ -9027,10 +9043,10 @@
         <v>68</v>
       </c>
       <c r="E437" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>2</v>
       </c>
@@ -9044,10 +9060,10 @@
         <v>68</v>
       </c>
       <c r="E438" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>2</v>
       </c>
@@ -9061,10 +9077,10 @@
         <v>68</v>
       </c>
       <c r="E439" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>2</v>
       </c>
@@ -9078,10 +9094,10 @@
         <v>68</v>
       </c>
       <c r="E440" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>2</v>
       </c>
@@ -9095,10 +9111,10 @@
         <v>68</v>
       </c>
       <c r="E441" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>2</v>
       </c>
@@ -9112,10 +9128,10 @@
         <v>68</v>
       </c>
       <c r="E442" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>2</v>
       </c>
@@ -9129,10 +9145,10 @@
         <v>68</v>
       </c>
       <c r="E443" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>2</v>
       </c>
@@ -9146,10 +9162,10 @@
         <v>68</v>
       </c>
       <c r="E444" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>2</v>
       </c>
@@ -9163,10 +9179,10 @@
         <v>68</v>
       </c>
       <c r="E445" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>2</v>
       </c>
@@ -9180,10 +9196,10 @@
         <v>70</v>
       </c>
       <c r="E446" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>2</v>
       </c>
@@ -9197,10 +9213,10 @@
         <v>70</v>
       </c>
       <c r="E447" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>2</v>
       </c>
@@ -9214,10 +9230,10 @@
         <v>70</v>
       </c>
       <c r="E448" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>2</v>
       </c>
@@ -9231,10 +9247,10 @@
         <v>70</v>
       </c>
       <c r="E449" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>2</v>
       </c>
@@ -9248,10 +9264,10 @@
         <v>70</v>
       </c>
       <c r="E450" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>2</v>
       </c>
@@ -9268,7 +9284,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="452" spans="1:5">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>2</v>
       </c>
@@ -9282,10 +9298,10 @@
         <v>70</v>
       </c>
       <c r="E452" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>2</v>
       </c>
@@ -9299,10 +9315,10 @@
         <v>70</v>
       </c>
       <c r="E453" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>2</v>
       </c>
@@ -9316,10 +9332,10 @@
         <v>70</v>
       </c>
       <c r="E454" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>2</v>
       </c>
@@ -9333,10 +9349,10 @@
         <v>70</v>
       </c>
       <c r="E455" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>2</v>
       </c>
@@ -9350,10 +9366,10 @@
         <v>70</v>
       </c>
       <c r="E456" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>2</v>
       </c>
@@ -9367,10 +9383,10 @@
         <v>70</v>
       </c>
       <c r="E457" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>2</v>
       </c>
@@ -9384,10 +9400,10 @@
         <v>70</v>
       </c>
       <c r="E458" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>2</v>
       </c>
@@ -9401,10 +9417,10 @@
         <v>70</v>
       </c>
       <c r="E459" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>2</v>
       </c>
@@ -9418,10 +9434,10 @@
         <v>70</v>
       </c>
       <c r="E460" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="461" spans="1:5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>2</v>
       </c>
@@ -9435,10 +9451,10 @@
         <v>70</v>
       </c>
       <c r="E461" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>2</v>
       </c>
@@ -9452,10 +9468,10 @@
         <v>70</v>
       </c>
       <c r="E462" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="463" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>2</v>
       </c>
@@ -9469,10 +9485,10 @@
         <v>70</v>
       </c>
       <c r="E463" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="464" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>2</v>
       </c>
@@ -9486,10 +9502,10 @@
         <v>70</v>
       </c>
       <c r="E464" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="465" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>2</v>
       </c>
@@ -9503,10 +9519,10 @@
         <v>70</v>
       </c>
       <c r="E465" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="466" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>2</v>
       </c>
@@ -9520,10 +9536,10 @@
         <v>70</v>
       </c>
       <c r="E466" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="467" spans="1:5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>2</v>
       </c>
@@ -9537,10 +9553,10 @@
         <v>70</v>
       </c>
       <c r="E467" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="468" spans="1:5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>2</v>
       </c>
@@ -9554,10 +9570,10 @@
         <v>70</v>
       </c>
       <c r="E468" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>2</v>
       </c>
@@ -9571,10 +9587,10 @@
         <v>70</v>
       </c>
       <c r="E469" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="470" spans="1:5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>2</v>
       </c>
@@ -9591,7 +9607,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="471" spans="1:5">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>2</v>
       </c>
@@ -9605,10 +9621,10 @@
         <v>70</v>
       </c>
       <c r="E471" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>2</v>
       </c>
@@ -9622,10 +9638,10 @@
         <v>70</v>
       </c>
       <c r="E472" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="473" spans="1:5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>2</v>
       </c>
@@ -9639,10 +9655,10 @@
         <v>70</v>
       </c>
       <c r="E473" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="474" spans="1:5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>2</v>
       </c>
@@ -9656,10 +9672,10 @@
         <v>70</v>
       </c>
       <c r="E474" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="475" spans="1:5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>2</v>
       </c>
@@ -9673,10 +9689,10 @@
         <v>70</v>
       </c>
       <c r="E475" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="476" spans="1:5">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>2</v>
       </c>
@@ -9690,10 +9706,10 @@
         <v>70</v>
       </c>
       <c r="E476" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>2</v>
       </c>
@@ -9707,10 +9723,10 @@
         <v>70</v>
       </c>
       <c r="E477" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="478" spans="1:5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>2</v>
       </c>
@@ -9724,10 +9740,10 @@
         <v>71</v>
       </c>
       <c r="E478" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="479" spans="1:5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>2</v>
       </c>
@@ -9741,10 +9757,10 @@
         <v>71</v>
       </c>
       <c r="E479" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="480" spans="1:5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>2</v>
       </c>
@@ -9758,10 +9774,10 @@
         <v>71</v>
       </c>
       <c r="E480" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="481" spans="1:5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>2</v>
       </c>
@@ -9775,10 +9791,10 @@
         <v>71</v>
       </c>
       <c r="E481" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="482" spans="1:5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>2</v>
       </c>
@@ -9792,10 +9808,10 @@
         <v>71</v>
       </c>
       <c r="E482" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>2</v>
       </c>
@@ -9809,10 +9825,10 @@
         <v>71</v>
       </c>
       <c r="E483" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="484" spans="1:5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>2</v>
       </c>
@@ -9829,7 +9845,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="485" spans="1:5">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>2</v>
       </c>
@@ -9843,10 +9859,10 @@
         <v>71</v>
       </c>
       <c r="E485" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="486" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>2</v>
       </c>
@@ -9860,10 +9876,10 @@
         <v>71</v>
       </c>
       <c r="E486" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="487" spans="1:5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>2</v>
       </c>
@@ -9877,10 +9893,10 @@
         <v>71</v>
       </c>
       <c r="E487" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="488" spans="1:5">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>2</v>
       </c>
@@ -9894,10 +9910,10 @@
         <v>71</v>
       </c>
       <c r="E488" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="489" spans="1:5">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>2</v>
       </c>
@@ -9911,10 +9927,10 @@
         <v>73</v>
       </c>
       <c r="E489" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="490" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>2</v>
       </c>
@@ -9928,10 +9944,10 @@
         <v>73</v>
       </c>
       <c r="E490" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="491" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>2</v>
       </c>
@@ -9945,10 +9961,10 @@
         <v>73</v>
       </c>
       <c r="E491" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="492" spans="1:5">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>2</v>
       </c>
@@ -9962,10 +9978,10 @@
         <v>73</v>
       </c>
       <c r="E492" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="493" spans="1:5">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>2</v>
       </c>
@@ -9979,10 +9995,10 @@
         <v>73</v>
       </c>
       <c r="E493" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="494" spans="1:5">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>2</v>
       </c>
@@ -9996,10 +10012,10 @@
         <v>73</v>
       </c>
       <c r="E494" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="495" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>2</v>
       </c>
@@ -10013,10 +10029,10 @@
         <v>73</v>
       </c>
       <c r="E495" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="496" spans="1:5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>2</v>
       </c>
@@ -10030,10 +10046,10 @@
         <v>73</v>
       </c>
       <c r="E496" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="497" spans="1:5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>2</v>
       </c>
@@ -10047,10 +10063,10 @@
         <v>73</v>
       </c>
       <c r="E497" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="498" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>2</v>
       </c>
@@ -10064,10 +10080,10 @@
         <v>73</v>
       </c>
       <c r="E498" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="499" spans="1:5">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>2</v>
       </c>
@@ -10081,10 +10097,10 @@
         <v>73</v>
       </c>
       <c r="E499" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="500" spans="1:5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>2</v>
       </c>
@@ -10098,10 +10114,10 @@
         <v>73</v>
       </c>
       <c r="E500" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="501" spans="1:5">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>2</v>
       </c>
@@ -10115,10 +10131,10 @@
         <v>73</v>
       </c>
       <c r="E501" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="502" spans="1:5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>2</v>
       </c>
@@ -10132,10 +10148,10 @@
         <v>73</v>
       </c>
       <c r="E502" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="503" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>2</v>
       </c>
@@ -10149,10 +10165,10 @@
         <v>75</v>
       </c>
       <c r="E503" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="504" spans="1:5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>2</v>
       </c>
@@ -10169,7 +10185,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="505" spans="1:5">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>2</v>
       </c>
@@ -10183,10 +10199,10 @@
         <v>75</v>
       </c>
       <c r="E505" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="506" spans="1:5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>2</v>
       </c>
@@ -10200,10 +10216,10 @@
         <v>75</v>
       </c>
       <c r="E506" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="507" spans="1:5">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>2</v>
       </c>
@@ -10217,10 +10233,10 @@
         <v>75</v>
       </c>
       <c r="E507" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="508" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>2</v>
       </c>
@@ -10234,10 +10250,10 @@
         <v>75</v>
       </c>
       <c r="E508" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="509" spans="1:5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>2</v>
       </c>
@@ -10251,7 +10267,7 @@
         <v>75</v>
       </c>
       <c r="E509" t="s">
-        <v>251</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
